--- a/results/planning/two_node_analysis.xlsx
+++ b/results/planning/two_node_analysis.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/results/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="682" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1075F297-5EEF-4EC2-9E39-D24A62D0CE31}"/>
+  <xr:revisionPtr revIDLastSave="738" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E82ECC36-EC01-4500-A700-38DDEF4CEFFE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="two_nodes" sheetId="2" r:id="rId1"/>
+    <sheet name="cases_analysis" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
   <si>
     <t>Time Period</t>
   </si>
@@ -141,6 +142,39 @@
   </si>
   <si>
     <t>$#_{\text{cong}}$: Congestion intances</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>IEEE 39-bus</t>
+  </si>
+  <si>
+    <t>IEEE 118-bus</t>
+  </si>
+  <si>
+    <t>60-bus Nordic case</t>
+  </si>
+  <si>
+    <t>Load Demand</t>
+  </si>
+  <si>
+    <t>Gen Units</t>
+  </si>
+  <si>
+    <t>Cand Units</t>
+  </si>
+  <si>
+    <t>Total gen</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operation conditions </t>
+  </si>
+  <si>
+    <t>Q</t>
   </si>
 </sst>
 </file>
@@ -148,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -231,59 +265,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -295,17 +296,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,60 +665,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E4416C-6E13-4689-A49F-46ABB1241885}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26171875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9" t="s">
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="10" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -748,32 +770,32 @@
       <c r="Q2">
         <v>150</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="22">
+      <c r="V2" s="9">
         <f>+B7</f>
         <v>246.5</v>
       </c>
-      <c r="W2" s="22">
+      <c r="W2" s="9">
         <f>+F7</f>
         <v>200</v>
       </c>
-      <c r="X2" s="22">
+      <c r="X2" s="9">
         <f>+J7</f>
         <v>246.5</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="Y2" s="9">
         <v>246.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -825,28 +847,28 @@
       <c r="Q3">
         <v>2</v>
       </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="3" t="s">
+      <c r="S3" s="23"/>
+      <c r="T3" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="18">
+      <c r="V3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="7">
         <f>+F2</f>
         <v>46.5</v>
       </c>
-      <c r="X3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y3" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -898,27 +920,27 @@
       <c r="Q4" s="2">
         <v>42.089999999999897</v>
       </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="3" t="s">
+      <c r="S4" s="23"/>
+      <c r="T4" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -970,25 +992,25 @@
       <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="5"/>
+      <c r="S5" s="23"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="X5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1001,19 +1023,19 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>13800000</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="4">
         <v>18630000</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="4">
         <v>13800000</v>
       </c>
       <c r="J6">
@@ -1040,30 +1062,30 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="3" t="s">
+      <c r="S6" s="23"/>
+      <c r="T6" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="U6" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="7">
         <f>+C7</f>
         <v>300</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="7">
         <f>+G7</f>
         <v>200</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="7">
         <f>+K7</f>
         <v>400</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Y6" s="7">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1115,30 +1137,30 @@
       <c r="Q7">
         <v>400</v>
       </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="3" t="s">
+      <c r="S7" s="23"/>
+      <c r="T7" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="U7" t="s">
         <v>30</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="7">
         <f>+C2</f>
         <v>167.5</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="7">
         <f>+G2</f>
         <v>200</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="7">
         <f>+K2</f>
         <v>67.5</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="7">
         <v>167.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1190,27 +1212,27 @@
       <c r="Q8">
         <v>550</v>
       </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="3" t="s">
+      <c r="S8" s="23"/>
+      <c r="T8" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="W8" s="18">
+      <c r="V8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="7">
         <v>67.5</v>
       </c>
-      <c r="X8" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1262,25 +1284,25 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="S9" s="6"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4" t="s">
+      <c r="S9" s="24"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="W9" s="24">
-        <v>1</v>
-      </c>
-      <c r="X9" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="11">
+        <v>1</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1332,125 +1354,125 @@
       <c r="Q10">
         <v>2</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="12" t="s">
+      <c r="T10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="U10" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="7">
         <f>+D8</f>
         <v>290</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="7">
         <f>+H7</f>
         <v>290</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="7">
         <f>+L7</f>
         <v>290</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="7">
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="3" t="s">
+      <c r="J11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="23"/>
+      <c r="T11" t="s">
         <v>23</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="U11" t="s">
         <v>30</v>
       </c>
-      <c r="V11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="W11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="X11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y11" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S12" s="5"/>
-      <c r="T12" s="3" t="s">
+      <c r="V11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="S12" s="23"/>
+      <c r="T12" t="s">
         <v>26</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U12" t="s">
         <v>28</v>
       </c>
-      <c r="V12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="W12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y12" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y12" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -1478,29 +1500,29 @@
       <c r="J13" t="s">
         <v>2</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="5"/>
+      <c r="S13" s="23"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="V13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="W13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="X13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y13" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="V13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -1530,34 +1552,34 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="3" t="s">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="23"/>
+      <c r="T14" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="U14" t="s">
         <v>31</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="7">
         <f>+E7</f>
         <v>300</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="7">
         <f>+I7</f>
         <v>300</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="7">
         <f>+M7</f>
         <v>400</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="Y14" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+    <row r="15" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="19"/>
       <c r="B15">
         <v>167.5</v>
       </c>
@@ -1585,34 +1607,34 @@
       <c r="J15">
         <v>2</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="3" t="s">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="23"/>
+      <c r="T15" t="s">
         <v>22</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="U15" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="18">
+      <c r="V15" s="7">
         <f>+E2</f>
         <v>200</v>
       </c>
-      <c r="W15" s="18">
+      <c r="W15" s="7">
         <f>+I2</f>
         <v>200</v>
       </c>
-      <c r="X15" s="18">
+      <c r="X15" s="7">
         <f>+M2</f>
         <v>150</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="Y15" s="7">
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="19"/>
       <c r="B16">
         <v>0</v>
       </c>
@@ -1640,31 +1662,31 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="3" t="s">
+      <c r="K16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S16" s="23"/>
+      <c r="T16" t="s">
         <v>27</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="U16" t="s">
         <v>28</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="7">
         <v>50</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="7">
         <v>50</v>
       </c>
-      <c r="X16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y16" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="X16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="19"/>
       <c r="B17">
         <v>200</v>
       </c>
@@ -1677,7 +1699,7 @@
       <c r="E17" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="4">
         <v>13800000</v>
       </c>
       <c r="G17">
@@ -1692,29 +1714,29 @@
       <c r="J17">
         <v>2</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="6"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4" t="s">
+      <c r="S17" s="24"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V17" s="26">
-        <v>1</v>
-      </c>
-      <c r="W17" s="26">
-        <v>1</v>
-      </c>
-      <c r="X17" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y17" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="V17" s="13">
+        <v>1</v>
+      </c>
+      <c r="W17" s="13">
+        <v>1</v>
+      </c>
+      <c r="X17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B18">
@@ -1744,19 +1766,19 @@
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="30" t="s">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="30"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="21"/>
       <c r="B19">
         <v>200</v>
       </c>
@@ -1769,7 +1791,7 @@
       <c r="E19" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="4">
         <v>18630000</v>
       </c>
       <c r="G19">
@@ -1784,13 +1806,12 @@
       <c r="J19">
         <v>2</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
+    </row>
+    <row r="20" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="21"/>
       <c r="B20">
         <v>0</v>
       </c>
@@ -1818,26 +1839,26 @@
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="10" t="s">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="W20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X20" s="10" t="s">
+      <c r="X20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Y20" s="10" t="s">
+      <c r="Y20" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="19"/>
       <c r="B21">
         <v>200</v>
       </c>
@@ -1850,7 +1871,7 @@
       <c r="E21" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="4">
         <v>13800000</v>
       </c>
       <c r="G21">
@@ -1865,30 +1886,30 @@
       <c r="J21">
         <v>2</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="T21" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="U21" s="15" t="s">
+      <c r="U21" t="s">
         <v>11</v>
       </c>
-      <c r="V21" s="27">
+      <c r="V21" s="14">
         <v>300</v>
       </c>
-      <c r="W21" s="27">
+      <c r="W21" s="14">
         <v>200</v>
       </c>
-      <c r="X21" s="27">
+      <c r="X21" s="14">
         <v>400</v>
       </c>
-      <c r="Y21" s="27">
+      <c r="Y21" s="14">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B22">
@@ -1918,28 +1939,28 @@
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T22" s="7"/>
-      <c r="U22" s="16" t="s">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="16"/>
+      <c r="U22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V22" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="W22" s="26">
+      <c r="V22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="W22" s="13">
         <v>100</v>
       </c>
-      <c r="X22" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y22" s="26">
+      <c r="X22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y22" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+    <row r="23" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="19"/>
       <c r="B23">
         <v>67.5</v>
       </c>
@@ -1967,29 +1988,28 @@
       <c r="J23">
         <v>2</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="15"/>
-      <c r="T23" s="29" t="s">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="29"/>
-      <c r="V23" s="28">
+      <c r="U23" s="17"/>
+      <c r="V23" s="14">
         <v>300</v>
       </c>
-      <c r="W23" s="28">
+      <c r="W23" s="14">
         <v>300</v>
       </c>
-      <c r="X23" s="28">
+      <c r="X23" s="14">
         <v>400</v>
       </c>
-      <c r="Y23" s="28">
+      <c r="Y23" s="14">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+    <row r="24" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="19"/>
       <c r="B24">
         <v>0</v>
       </c>
@@ -2017,14 +2037,13 @@
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="15"/>
-      <c r="T24" s="8"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="19"/>
       <c r="B25">
         <v>150</v>
       </c>
@@ -2052,13 +2071,12 @@
       <c r="J25">
         <v>2</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S25" s="15"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="K25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B26">
@@ -2088,14 +2106,13 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="15"/>
-      <c r="T26" s="8"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="4"/>
+    </row>
+    <row r="27" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="19"/>
       <c r="B27">
         <v>167.5</v>
       </c>
@@ -2123,13 +2140,12 @@
       <c r="J27">
         <v>2</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="15"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="19"/>
       <c r="B28">
         <v>0</v>
       </c>
@@ -2157,13 +2173,12 @@
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S28" s="15"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="K28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="19"/>
       <c r="B29">
         <v>150</v>
       </c>
@@ -2191,19 +2206,12 @@
       <c r="J29">
         <v>2</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="S10:S17"/>
     <mergeCell ref="S2:S9"/>
@@ -2211,7 +2219,162 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9E9B71-9EB2-402B-A29F-5B0BB42EA6E4}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="16.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.68359375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>6254.2300000000005</v>
+      </c>
+      <c r="C3">
+        <v>7367</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>8940</v>
+      </c>
+      <c r="C4">
+        <v>19485</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>4242</v>
+      </c>
+      <c r="C5">
+        <v>7220</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>3.26</v>
+      </c>
+      <c r="J5">
+        <v>19.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/planning/two_node_analysis.xlsx
+++ b/results/planning/two_node_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/results/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="738" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E82ECC36-EC01-4500-A700-38DDEF4CEFFE}"/>
+  <xr:revisionPtr revIDLastSave="754" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2619983B-4208-4A82-8E71-44770F6BECF4}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="two_nodes" sheetId="2" r:id="rId1"/>
@@ -299,6 +299,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,22 +323,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -669,39 +669,39 @@
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26171875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.41796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -718,7 +718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="Q2">
         <v>150</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="6" t="s">
@@ -795,7 +795,7 @@
         <v>246.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -847,7 +847,7 @@
       <c r="Q3">
         <v>2</v>
       </c>
-      <c r="S3" s="23"/>
+      <c r="S3" s="17"/>
       <c r="T3" t="s">
         <v>23</v>
       </c>
@@ -868,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -920,7 +920,7 @@
       <c r="Q4" s="2">
         <v>42.089999999999897</v>
       </c>
-      <c r="S4" s="23"/>
+      <c r="S4" s="17"/>
       <c r="T4" t="s">
         <v>24</v>
       </c>
@@ -940,7 +940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -992,7 +992,7 @@
       <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="23"/>
+      <c r="S5" s="17"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
         <v>29</v>
@@ -1010,7 +1010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1062,7 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="S6" s="23"/>
+      <c r="S6" s="17"/>
       <c r="T6" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="Q7">
         <v>400</v>
       </c>
-      <c r="S7" s="23"/>
+      <c r="S7" s="17"/>
       <c r="T7" t="s">
         <v>22</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="Q8">
         <v>550</v>
       </c>
-      <c r="S8" s="23"/>
+      <c r="S8" s="17"/>
       <c r="T8" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="S9" s="24"/>
+      <c r="S9" s="18"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3" t="s">
         <v>29</v>
@@ -1302,7 +1302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1354,7 @@
       <c r="Q10">
         <v>2</v>
       </c>
-      <c r="S10" s="22" t="s">
+      <c r="S10" s="16" t="s">
         <v>12</v>
       </c>
       <c r="T10" s="6" t="s">
@@ -1379,7 +1379,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="Q11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S11" s="23"/>
+      <c r="S11" s="17"/>
       <c r="T11" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1451,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
-      <c r="S12" s="23"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="S12" s="17"/>
       <c r="T12" t="s">
         <v>26</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -1503,7 +1503,7 @@
       <c r="K13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="23"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
         <v>29</v>
@@ -1521,8 +1521,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -1555,7 +1555,7 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="23"/>
+      <c r="S14" s="17"/>
       <c r="T14" t="s">
         <v>21</v>
       </c>
@@ -1578,8 +1578,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="19"/>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
       <c r="B15">
         <v>167.5</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="23"/>
+      <c r="S15" s="17"/>
       <c r="T15" t="s">
         <v>22</v>
       </c>
@@ -1633,8 +1633,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="19"/>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
       <c r="B16">
         <v>0</v>
       </c>
@@ -1665,7 +1665,7 @@
       <c r="K16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="23"/>
+      <c r="S16" s="17"/>
       <c r="T16" t="s">
         <v>27</v>
       </c>
@@ -1685,8 +1685,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="19"/>
+    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
       <c r="B17">
         <v>200</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="K17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="24"/>
+      <c r="S17" s="18"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
         <v>29</v>
@@ -1735,8 +1735,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B18">
@@ -1769,16 +1769,16 @@
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S18" s="18" t="s">
+      <c r="S18" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-    </row>
-    <row r="19" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="21"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+    </row>
+    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
       <c r="B19">
         <v>200</v>
       </c>
@@ -1810,8 +1810,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="21"/>
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
       <c r="B20">
         <v>0</v>
       </c>
@@ -1857,8 +1857,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
       <c r="B21">
         <v>200</v>
       </c>
@@ -1889,7 +1889,7 @@
       <c r="K21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T21" s="15" t="s">
+      <c r="T21" s="19" t="s">
         <v>32</v>
       </c>
       <c r="U21" t="s">
@@ -1908,8 +1908,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B22">
@@ -1942,7 +1942,7 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="16"/>
+      <c r="T22" s="20"/>
       <c r="U22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1959,8 +1959,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23">
         <v>67.5</v>
       </c>
@@ -1991,10 +1991,10 @@
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="17" t="s">
+      <c r="T23" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="17"/>
+      <c r="U23" s="21"/>
       <c r="V23" s="14">
         <v>300</v>
       </c>
@@ -2008,8 +2008,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
       <c r="B24">
         <v>0</v>
       </c>
@@ -2042,8 +2042,8 @@
       </c>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15"/>
       <c r="B25">
         <v>150</v>
       </c>
@@ -2075,8 +2075,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="19" t="s">
+    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B26">
@@ -2111,8 +2111,8 @@
       </c>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
       <c r="B27">
         <v>167.5</v>
       </c>
@@ -2144,8 +2144,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="19"/>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="15"/>
       <c r="B28">
         <v>0</v>
       </c>
@@ -2177,8 +2177,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="19"/>
+    <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15"/>
       <c r="B29">
         <v>150</v>
       </c>
@@ -2212,6 +2212,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="S10:S17"/>
     <mergeCell ref="S2:S9"/>
@@ -2219,12 +2225,6 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2232,39 +2232,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9E9B71-9EB2-402B-A29F-5B0BB42EA6E4}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.20703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.62890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -2281,16 +2278,28 @@
         <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>20</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2307,16 +2316,19 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>0.27</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>1.56</v>
       </c>
       <c r="H3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>1.64</v>
+      </c>
+      <c r="I3">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -2333,16 +2345,19 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>3.31</v>
       </c>
       <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>3.57</v>
+      </c>
+      <c r="I4">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -2359,19 +2374,16 @@
         <v>64</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3.26</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>19.32</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>43.21</v>
       </c>
       <c r="I5">
-        <v>3.26</v>
-      </c>
-      <c r="J5">
-        <v>19.32</v>
+        <v>333.39</v>
       </c>
     </row>
   </sheetData>

--- a/results/planning/two_node_analysis.xlsx
+++ b/results/planning/two_node_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/results/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="754" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2619983B-4208-4A82-8E71-44770F6BECF4}"/>
+  <xr:revisionPtr revIDLastSave="883" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291EF6BB-C9CF-4F67-8306-1FB26D6C559E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="two_nodes" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="48">
   <si>
     <t>Time Period</t>
   </si>
@@ -153,38 +153,47 @@
     <t>IEEE 118-bus</t>
   </si>
   <si>
-    <t>60-bus Nordic case</t>
-  </si>
-  <si>
-    <t>Load Demand</t>
-  </si>
-  <si>
-    <t>Gen Units</t>
+    <t>60-bus Nordic</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>[MW]</t>
+  </si>
+  <si>
+    <t>Total Gen</t>
+  </si>
+  <si>
+    <t>[#]</t>
+  </si>
+  <si>
+    <t>Exist Units</t>
   </si>
   <si>
     <t>Cand Units</t>
   </si>
   <si>
-    <t>Total gen</t>
-  </si>
-  <si>
-    <t>Times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Operation conditions </t>
-  </si>
-  <si>
-    <t>Q</t>
+    <t>Load shed [%]</t>
+  </si>
+  <si>
+    <t>CPU time [s]</t>
+  </si>
+  <si>
+    <t>Cand Unit Utilization [%]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +211,13 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -262,10 +278,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -302,6 +319,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,26 +357,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -344,6 +395,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,30 +733,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -770,7 +825,7 @@
       <c r="Q2">
         <v>150</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="6" t="s">
@@ -847,7 +902,7 @@
       <c r="Q3">
         <v>2</v>
       </c>
-      <c r="S3" s="17"/>
+      <c r="S3" s="28"/>
       <c r="T3" t="s">
         <v>23</v>
       </c>
@@ -920,7 +975,7 @@
       <c r="Q4" s="2">
         <v>42.089999999999897</v>
       </c>
-      <c r="S4" s="17"/>
+      <c r="S4" s="28"/>
       <c r="T4" t="s">
         <v>24</v>
       </c>
@@ -992,7 +1047,7 @@
       <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="17"/>
+      <c r="S5" s="28"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
         <v>29</v>
@@ -1062,7 +1117,7 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="S6" s="17"/>
+      <c r="S6" s="28"/>
       <c r="T6" t="s">
         <v>21</v>
       </c>
@@ -1137,7 +1192,7 @@
       <c r="Q7">
         <v>400</v>
       </c>
-      <c r="S7" s="17"/>
+      <c r="S7" s="28"/>
       <c r="T7" t="s">
         <v>22</v>
       </c>
@@ -1212,7 +1267,7 @@
       <c r="Q8">
         <v>550</v>
       </c>
-      <c r="S8" s="17"/>
+      <c r="S8" s="28"/>
       <c r="T8" t="s">
         <v>25</v>
       </c>
@@ -1284,7 +1339,7 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="S9" s="18"/>
+      <c r="S9" s="29"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3" t="s">
         <v>29</v>
@@ -1354,7 +1409,7 @@
       <c r="Q10">
         <v>2</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="S10" s="27" t="s">
         <v>12</v>
       </c>
       <c r="T10" s="6" t="s">
@@ -1431,7 +1486,7 @@
       <c r="Q11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S11" s="17"/>
+      <c r="S11" s="28"/>
       <c r="T11" t="s">
         <v>23</v>
       </c>
@@ -1452,7 +1507,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S12" s="17"/>
+      <c r="S12" s="28"/>
       <c r="T12" t="s">
         <v>26</v>
       </c>
@@ -1503,7 +1558,7 @@
       <c r="K13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="17"/>
+      <c r="S13" s="28"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
         <v>29</v>
@@ -1522,7 +1577,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -1555,7 +1610,7 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="17"/>
+      <c r="S14" s="28"/>
       <c r="T14" t="s">
         <v>21</v>
       </c>
@@ -1579,7 +1634,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="24"/>
       <c r="B15">
         <v>167.5</v>
       </c>
@@ -1610,7 +1665,7 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="17"/>
+      <c r="S15" s="28"/>
       <c r="T15" t="s">
         <v>22</v>
       </c>
@@ -1634,7 +1689,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="24"/>
       <c r="B16">
         <v>0</v>
       </c>
@@ -1665,7 +1720,7 @@
       <c r="K16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="17"/>
+      <c r="S16" s="28"/>
       <c r="T16" t="s">
         <v>27</v>
       </c>
@@ -1686,7 +1741,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="24"/>
       <c r="B17">
         <v>200</v>
       </c>
@@ -1717,7 +1772,7 @@
       <c r="K17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="18"/>
+      <c r="S17" s="29"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
         <v>29</v>
@@ -1736,7 +1791,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B18">
@@ -1769,16 +1824,16 @@
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S18" s="22" t="s">
+      <c r="S18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
+      <c r="A19" s="26"/>
       <c r="B19">
         <v>200</v>
       </c>
@@ -1811,7 +1866,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
+      <c r="A20" s="26"/>
       <c r="B20">
         <v>0</v>
       </c>
@@ -1858,7 +1913,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="24"/>
       <c r="B21">
         <v>200</v>
       </c>
@@ -1889,7 +1944,7 @@
       <c r="K21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="T21" s="20" t="s">
         <v>32</v>
       </c>
       <c r="U21" t="s">
@@ -1909,7 +1964,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B22">
@@ -1942,7 +1997,7 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="20"/>
+      <c r="T22" s="21"/>
       <c r="U22" s="3" t="s">
         <v>12</v>
       </c>
@@ -1960,7 +2015,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
+      <c r="A23" s="24"/>
       <c r="B23">
         <v>67.5</v>
       </c>
@@ -1991,10 +2046,10 @@
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="21" t="s">
+      <c r="T23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="21"/>
+      <c r="U23" s="22"/>
       <c r="V23" s="14">
         <v>300</v>
       </c>
@@ -2009,7 +2064,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
+      <c r="A24" s="24"/>
       <c r="B24">
         <v>0</v>
       </c>
@@ -2043,7 +2098,7 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
+      <c r="A25" s="24"/>
       <c r="B25">
         <v>150</v>
       </c>
@@ -2076,7 +2131,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B26">
@@ -2112,7 +2167,7 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
+      <c r="A27" s="24"/>
       <c r="B27">
         <v>167.5</v>
       </c>
@@ -2145,7 +2200,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="24"/>
       <c r="B28">
         <v>0</v>
       </c>
@@ -2178,7 +2233,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
+      <c r="A29" s="24"/>
       <c r="B29">
         <v>150</v>
       </c>
@@ -2212,12 +2267,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="S10:S17"/>
     <mergeCell ref="S2:S9"/>
@@ -2225,6 +2274,12 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2232,161 +2287,307 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9E9B71-9EB2-402B-A29F-5B0BB42EA6E4}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" customWidth="1"/>
+    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="Q1" t="s">
+    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="S1" t="s">
+      <c r="I1" s="30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>20</v>
-      </c>
-      <c r="S2">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="31">
         <v>6254.2300000000005</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="33">
         <v>7367</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="16">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="16">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="18">
         <v>0.27</v>
       </c>
-      <c r="G3">
+      <c r="J3" s="18">
         <v>1.56</v>
       </c>
-      <c r="H3">
+      <c r="K3" s="18">
         <v>1.64</v>
       </c>
-      <c r="I3">
+      <c r="L3" s="18">
         <v>12.85</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="M3" s="18"/>
+      <c r="N3" s="18">
+        <v>0.27</v>
+      </c>
+      <c r="O3" s="18">
+        <v>1.56</v>
+      </c>
+      <c r="P3" s="18">
+        <v>1.64</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>12.85</v>
+      </c>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18">
+        <v>0.27</v>
+      </c>
+      <c r="T3" s="18">
+        <v>1.56</v>
+      </c>
+      <c r="U3" s="18">
+        <v>1.64</v>
+      </c>
+      <c r="V3" s="18">
+        <v>12.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="31">
         <v>8940</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="33">
         <v>19485</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="16">
         <v>23</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="16">
         <v>32</v>
       </c>
-      <c r="F4">
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="18">
         <v>0.6</v>
       </c>
-      <c r="G4">
+      <c r="J4" s="18">
         <v>3.31</v>
       </c>
-      <c r="H4">
+      <c r="K4" s="18">
         <v>3.57</v>
       </c>
-      <c r="I4">
+      <c r="L4" s="18">
         <v>8.86</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="M4" s="18"/>
+      <c r="N4" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="18">
+        <v>3.31</v>
+      </c>
+      <c r="P4" s="18">
+        <v>3.57</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>8.86</v>
+      </c>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="T4" s="18">
+        <v>3.31</v>
+      </c>
+      <c r="U4" s="18">
+        <v>3.57</v>
+      </c>
+      <c r="V4" s="18">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="32">
         <v>4242</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="34">
         <v>7220</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="17">
         <v>54</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="17">
         <v>64</v>
       </c>
-      <c r="F5">
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="19">
         <v>3.26</v>
       </c>
-      <c r="G5">
+      <c r="J5" s="19">
         <v>19.32</v>
       </c>
-      <c r="H5">
+      <c r="K5" s="19">
         <v>43.21</v>
       </c>
-      <c r="I5">
+      <c r="L5" s="19">
         <v>333.39</v>
       </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19">
+        <v>3.26</v>
+      </c>
+      <c r="O5" s="19">
+        <v>19.32</v>
+      </c>
+      <c r="P5" s="19">
+        <v>43.21</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>333.39</v>
+      </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19">
+        <v>3.26</v>
+      </c>
+      <c r="T5" s="19">
+        <v>19.32</v>
+      </c>
+      <c r="U5" s="19">
+        <v>43.21</v>
+      </c>
+      <c r="V5" s="19">
+        <v>333.39</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="S1:V1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/planning/two_node_analysis.xlsx
+++ b/results/planning/two_node_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/results/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="883" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{291EF6BB-C9CF-4F67-8306-1FB26D6C559E}"/>
+  <xr:revisionPtr revIDLastSave="943" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E979D6E-E34A-4214-9DE7-18969BD3EBD7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="two_nodes" sheetId="2" r:id="rId1"/>
@@ -177,10 +177,10 @@
     <t>Load shed [%]</t>
   </si>
   <si>
-    <t>CPU time [s]</t>
-  </si>
-  <si>
     <t>Cand Unit Utilization [%]</t>
+  </si>
+  <si>
+    <t>CPU time [min]</t>
   </si>
 </sst>
 </file>
@@ -190,10 +190,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +218,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -282,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -327,6 +335,37 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,46 +378,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -733,30 +746,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -825,7 +838,7 @@
       <c r="Q2">
         <v>150</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="30" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="6" t="s">
@@ -902,7 +915,7 @@
       <c r="Q3">
         <v>2</v>
       </c>
-      <c r="S3" s="28"/>
+      <c r="S3" s="31"/>
       <c r="T3" t="s">
         <v>23</v>
       </c>
@@ -975,7 +988,7 @@
       <c r="Q4" s="2">
         <v>42.089999999999897</v>
       </c>
-      <c r="S4" s="28"/>
+      <c r="S4" s="31"/>
       <c r="T4" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1060,7 @@
       <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="28"/>
+      <c r="S5" s="31"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
         <v>29</v>
@@ -1117,7 +1130,7 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="S6" s="28"/>
+      <c r="S6" s="31"/>
       <c r="T6" t="s">
         <v>21</v>
       </c>
@@ -1192,7 +1205,7 @@
       <c r="Q7">
         <v>400</v>
       </c>
-      <c r="S7" s="28"/>
+      <c r="S7" s="31"/>
       <c r="T7" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1280,7 @@
       <c r="Q8">
         <v>550</v>
       </c>
-      <c r="S8" s="28"/>
+      <c r="S8" s="31"/>
       <c r="T8" t="s">
         <v>25</v>
       </c>
@@ -1339,7 +1352,7 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="S9" s="29"/>
+      <c r="S9" s="32"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3" t="s">
         <v>29</v>
@@ -1409,7 +1422,7 @@
       <c r="Q10">
         <v>2</v>
       </c>
-      <c r="S10" s="27" t="s">
+      <c r="S10" s="30" t="s">
         <v>12</v>
       </c>
       <c r="T10" s="6" t="s">
@@ -1486,7 +1499,7 @@
       <c r="Q11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S11" s="28"/>
+      <c r="S11" s="31"/>
       <c r="T11" t="s">
         <v>23</v>
       </c>
@@ -1507,7 +1520,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S12" s="28"/>
+      <c r="S12" s="31"/>
       <c r="T12" t="s">
         <v>26</v>
       </c>
@@ -1558,7 +1571,7 @@
       <c r="K13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="28"/>
+      <c r="S13" s="31"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
         <v>29</v>
@@ -1577,7 +1590,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -1610,7 +1623,7 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="28"/>
+      <c r="S14" s="31"/>
       <c r="T14" t="s">
         <v>21</v>
       </c>
@@ -1634,7 +1647,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
+      <c r="A15" s="29"/>
       <c r="B15">
         <v>167.5</v>
       </c>
@@ -1665,7 +1678,7 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="28"/>
+      <c r="S15" s="31"/>
       <c r="T15" t="s">
         <v>22</v>
       </c>
@@ -1689,7 +1702,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
+      <c r="A16" s="29"/>
       <c r="B16">
         <v>0</v>
       </c>
@@ -1720,7 +1733,7 @@
       <c r="K16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="28"/>
+      <c r="S16" s="31"/>
       <c r="T16" t="s">
         <v>27</v>
       </c>
@@ -1741,7 +1754,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="29"/>
       <c r="B17">
         <v>200</v>
       </c>
@@ -1772,7 +1785,7 @@
       <c r="K17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="29"/>
+      <c r="S17" s="32"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
         <v>29</v>
@@ -1791,7 +1804,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B18">
@@ -1824,16 +1837,16 @@
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S18" s="23" t="s">
+      <c r="S18" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+      <c r="A19" s="38"/>
       <c r="B19">
         <v>200</v>
       </c>
@@ -1866,7 +1879,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
+      <c r="A20" s="38"/>
       <c r="B20">
         <v>0</v>
       </c>
@@ -1913,7 +1926,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
+      <c r="A21" s="29"/>
       <c r="B21">
         <v>200</v>
       </c>
@@ -1944,7 +1957,7 @@
       <c r="K21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T21" s="20" t="s">
+      <c r="T21" s="33" t="s">
         <v>32</v>
       </c>
       <c r="U21" t="s">
@@ -1964,7 +1977,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B22">
@@ -1997,7 +2010,7 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="21"/>
+      <c r="T22" s="34"/>
       <c r="U22" s="3" t="s">
         <v>12</v>
       </c>
@@ -2015,7 +2028,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
+      <c r="A23" s="29"/>
       <c r="B23">
         <v>67.5</v>
       </c>
@@ -2046,10 +2059,10 @@
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="22" t="s">
+      <c r="T23" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="22"/>
+      <c r="U23" s="35"/>
       <c r="V23" s="14">
         <v>300</v>
       </c>
@@ -2064,7 +2077,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
+      <c r="A24" s="29"/>
       <c r="B24">
         <v>0</v>
       </c>
@@ -2098,7 +2111,7 @@
       <c r="T24" s="4"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
+      <c r="A25" s="29"/>
       <c r="B25">
         <v>150</v>
       </c>
@@ -2131,7 +2144,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B26">
@@ -2167,7 +2180,7 @@
       <c r="T26" s="4"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24"/>
+      <c r="A27" s="29"/>
       <c r="B27">
         <v>167.5</v>
       </c>
@@ -2200,7 +2213,7 @@
       </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="24"/>
+      <c r="A28" s="29"/>
       <c r="B28">
         <v>0</v>
       </c>
@@ -2233,7 +2246,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
+      <c r="A29" s="29"/>
       <c r="B29">
         <v>150</v>
       </c>
@@ -2267,6 +2280,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="S10:S17"/>
     <mergeCell ref="S2:S9"/>
@@ -2274,12 +2293,6 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2287,17 +2300,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9E9B71-9EB2-402B-A29F-5B0BB42EA6E4}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -2319,7 +2332,7 @@
       <c r="B1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="25" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="16" t="s">
@@ -2328,26 +2341,26 @@
       <c r="E1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="17"/>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -2356,7 +2369,7 @@
       <c r="B2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="26" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2408,13 +2421,13 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="20">
         <v>6254.2300000000005</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="22">
         <v>7367</v>
       </c>
       <c r="D3" s="16">
@@ -2423,33 +2436,33 @@
       <c r="E3" s="16">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="27" t="s">
         <v>36</v>
       </c>
       <c r="I3" s="18">
-        <v>0.27</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1.56</v>
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="J3" s="40">
+        <v>10.44</v>
       </c>
       <c r="K3" s="18">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="L3" s="18">
-        <v>12.85</v>
+        <v>0</v>
       </c>
       <c r="M3" s="18"/>
       <c r="N3" s="18">
-        <v>0.27</v>
+        <v>87.21</v>
       </c>
       <c r="O3" s="18">
-        <v>1.56</v>
+        <v>93.33</v>
       </c>
       <c r="P3" s="18">
-        <v>1.64</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>12.85</v>
+        <v>80.12</v>
+      </c>
+      <c r="Q3" s="40">
+        <v>95.37</v>
       </c>
       <c r="R3" s="18"/>
       <c r="S3" s="18">
@@ -2461,18 +2474,18 @@
       <c r="U3" s="18">
         <v>1.64</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="40">
         <v>12.85</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="20">
         <v>8940</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="22">
         <v>19485</v>
       </c>
       <c r="D4" s="16">
@@ -2481,33 +2494,33 @@
       <c r="E4" s="16">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="18">
-        <v>0.6</v>
-      </c>
-      <c r="J4" s="18">
-        <v>3.31</v>
+      <c r="I4" s="40">
+        <v>0.94</v>
+      </c>
+      <c r="J4" s="40">
+        <v>0.94</v>
       </c>
       <c r="K4" s="18">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="L4" s="18">
-        <v>8.86</v>
+        <v>0</v>
       </c>
       <c r="M4" s="18"/>
-      <c r="N4" s="18">
-        <v>0.6</v>
+      <c r="N4" s="40">
+        <v>99.38</v>
       </c>
       <c r="O4" s="18">
-        <v>3.31</v>
-      </c>
-      <c r="P4" s="18">
-        <v>3.57</v>
+        <v>94.48</v>
+      </c>
+      <c r="P4">
+        <v>68.040000000000006</v>
       </c>
       <c r="Q4" s="18">
-        <v>8.86</v>
+        <v>87.2</v>
       </c>
       <c r="R4" s="18"/>
       <c r="S4" s="18">
@@ -2519,18 +2532,18 @@
       <c r="U4" s="18">
         <v>3.57</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="40">
         <v>8.86</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="21">
         <v>4242</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="23">
         <v>7220</v>
       </c>
       <c r="D5" s="17">
@@ -2539,33 +2552,33 @@
       <c r="E5" s="17">
         <v>64</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="28" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="19">
-        <v>3.26</v>
-      </c>
-      <c r="J5" s="19">
-        <v>19.32</v>
+        <v>0.22</v>
+      </c>
+      <c r="J5" s="41">
+        <v>0.18</v>
       </c>
       <c r="K5" s="19">
-        <v>43.21</v>
+        <v>0</v>
       </c>
       <c r="L5" s="19">
-        <v>333.39</v>
+        <v>0</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19">
-        <v>3.26</v>
-      </c>
-      <c r="O5" s="19">
-        <v>19.32</v>
+        <v>54.84</v>
+      </c>
+      <c r="O5" s="41">
+        <v>76.14</v>
       </c>
       <c r="P5" s="19">
-        <v>43.21</v>
-      </c>
-      <c r="Q5" s="19">
-        <v>333.39</v>
+        <v>51.62</v>
+      </c>
+      <c r="Q5" s="42">
+        <v>72.3</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="19">
@@ -2577,9 +2590,15 @@
       <c r="U5" s="19">
         <v>43.21</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="41">
         <v>333.39</v>
       </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/results/planning/two_node_analysis.xlsx
+++ b/results/planning/two_node_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmailcarletonca-my.sharepoint.com/personal/luislopezdiaz_cmail_carleton_ca/Documents/00 PhD Thesis/code/GridOpt.jl/results/planning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="943" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E979D6E-E34A-4214-9DE7-18969BD3EBD7}"/>
+  <xr:revisionPtr revIDLastSave="1013" documentId="8_{15012C9A-1165-432B-9B86-14D9CC3D97E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D4609E8-E0E7-40FC-9D56-ACBC8F734BFB}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" activeTab="1" xr2:uid="{2A8ECC8D-33BE-457A-B507-D9BBA4748D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="two_nodes" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="62">
   <si>
     <t>Time Period</t>
   </si>
@@ -181,6 +181,72 @@
   </si>
   <si>
     <t>CPU time [min]</t>
+  </si>
+  <si>
+    <t>Problem Size (Variables)</t>
+  </si>
+  <si>
+    <t>*C: continuous, I: integer, B: binary</t>
+  </si>
+  <si>
+    <t>64k C, 
+640 I 
+(576 B)</t>
+  </si>
+  <si>
+    <t>637k C, 
+6400 I 
+(5760 B)</t>
+  </si>
+  <si>
+    <t>116k C, 
+639 I 
+(576 B)</t>
+  </si>
+  <si>
+    <t>1167k C, 
+6398 I 
+(5760 B)</t>
+  </si>
+  <si>
+    <t>561k C, 
+3199 I 
+(2880 B)</t>
+  </si>
+  <si>
+    <t>56k C, 
+319 I 
+(288 B)</t>
+  </si>
+  <si>
+    <t>32k C, 
+320 I
+(288 B)</t>
+  </si>
+  <si>
+    <t>14k C, 
+150 I 
+(135 B)</t>
+  </si>
+  <si>
+    <t>122k C,
+1500 I 
+(1350 B)</t>
+  </si>
+  <si>
+    <t>319k C, 
+3200 I 
+(2880 B)</t>
+  </si>
+  <si>
+    <t>28 k C,
+150 I 
+(135 B)</t>
+  </si>
+  <si>
+    <t>288k C, 
+1500 I 
+(1350 B)</t>
   </si>
 </sst>
 </file>
@@ -188,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -288,28 +354,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -335,12 +401,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -354,9 +420,29 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,32 +452,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -737,39 +822,39 @@
       <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.26171875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
@@ -786,7 +871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -838,7 +923,7 @@
       <c r="Q2">
         <v>150</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="38" t="s">
         <v>11</v>
       </c>
       <c r="T2" s="6" t="s">
@@ -863,7 +948,7 @@
         <v>246.5</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -915,7 +1000,7 @@
       <c r="Q3">
         <v>2</v>
       </c>
-      <c r="S3" s="31"/>
+      <c r="S3" s="39"/>
       <c r="T3" t="s">
         <v>23</v>
       </c>
@@ -936,7 +1021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -988,7 +1073,7 @@
       <c r="Q4" s="2">
         <v>42.089999999999897</v>
       </c>
-      <c r="S4" s="31"/>
+      <c r="S4" s="39"/>
       <c r="T4" t="s">
         <v>24</v>
       </c>
@@ -1008,7 +1093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1060,7 +1145,7 @@
       <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="31"/>
+      <c r="S5" s="39"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1" t="s">
         <v>29</v>
@@ -1078,7 +1163,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1130,7 +1215,7 @@
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="S6" s="31"/>
+      <c r="S6" s="39"/>
       <c r="T6" t="s">
         <v>21</v>
       </c>
@@ -1153,7 +1238,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1205,7 +1290,7 @@
       <c r="Q7">
         <v>400</v>
       </c>
-      <c r="S7" s="31"/>
+      <c r="S7" s="39"/>
       <c r="T7" t="s">
         <v>22</v>
       </c>
@@ -1228,7 +1313,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1280,7 +1365,7 @@
       <c r="Q8">
         <v>550</v>
       </c>
-      <c r="S8" s="31"/>
+      <c r="S8" s="39"/>
       <c r="T8" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1352,7 +1437,7 @@
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="S9" s="32"/>
+      <c r="S9" s="40"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3" t="s">
         <v>29</v>
@@ -1370,7 +1455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1422,7 +1507,7 @@
       <c r="Q10">
         <v>2</v>
       </c>
-      <c r="S10" s="30" t="s">
+      <c r="S10" s="38" t="s">
         <v>12</v>
       </c>
       <c r="T10" s="6" t="s">
@@ -1447,7 +1532,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1499,7 +1584,7 @@
       <c r="Q11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S11" s="31"/>
+      <c r="S11" s="39"/>
       <c r="T11" t="s">
         <v>23</v>
       </c>
@@ -1519,8 +1604,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="S12" s="31"/>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="S12" s="39"/>
       <c r="T12" t="s">
         <v>26</v>
       </c>
@@ -1540,7 +1625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -1571,7 +1656,7 @@
       <c r="K13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S13" s="31"/>
+      <c r="S13" s="39"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1" t="s">
         <v>29</v>
@@ -1589,8 +1674,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -1623,7 +1708,7 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="31"/>
+      <c r="S14" s="39"/>
       <c r="T14" t="s">
         <v>21</v>
       </c>
@@ -1646,8 +1731,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+    <row r="15" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="35"/>
       <c r="B15">
         <v>167.5</v>
       </c>
@@ -1678,7 +1763,7 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S15" s="31"/>
+      <c r="S15" s="39"/>
       <c r="T15" t="s">
         <v>22</v>
       </c>
@@ -1701,8 +1786,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+    <row r="16" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="35"/>
       <c r="B16">
         <v>0</v>
       </c>
@@ -1733,7 +1818,7 @@
       <c r="K16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S16" s="31"/>
+      <c r="S16" s="39"/>
       <c r="T16" t="s">
         <v>27</v>
       </c>
@@ -1753,8 +1838,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
+    <row r="17" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="35"/>
       <c r="B17">
         <v>200</v>
       </c>
@@ -1785,7 +1870,7 @@
       <c r="K17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S17" s="32"/>
+      <c r="S17" s="40"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3" t="s">
         <v>29</v>
@@ -1803,8 +1888,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B18">
@@ -1837,16 +1922,16 @@
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S18" s="36" t="s">
+      <c r="S18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-    </row>
-    <row r="19" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+    </row>
+    <row r="19" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A19" s="37"/>
       <c r="B19">
         <v>200</v>
       </c>
@@ -1878,8 +1963,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
+    <row r="20" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A20" s="37"/>
       <c r="B20">
         <v>0</v>
       </c>
@@ -1925,8 +2010,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A21" s="35"/>
       <c r="B21">
         <v>200</v>
       </c>
@@ -1957,7 +2042,7 @@
       <c r="K21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="T21" s="33" t="s">
+      <c r="T21" s="31" t="s">
         <v>32</v>
       </c>
       <c r="U21" t="s">
@@ -1976,8 +2061,8 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29" t="s">
+    <row r="22" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B22">
@@ -2010,7 +2095,7 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="34"/>
+      <c r="T22" s="32"/>
       <c r="U22" s="3" t="s">
         <v>12</v>
       </c>
@@ -2027,8 +2112,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A23" s="35"/>
       <c r="B23">
         <v>67.5</v>
       </c>
@@ -2059,10 +2144,10 @@
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T23" s="35" t="s">
+      <c r="T23" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="35"/>
+      <c r="U23" s="33"/>
       <c r="V23" s="14">
         <v>300</v>
       </c>
@@ -2076,8 +2161,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+    <row r="24" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="35"/>
       <c r="B24">
         <v>0</v>
       </c>
@@ -2110,8 +2195,8 @@
       </c>
       <c r="T24" s="4"/>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+    <row r="25" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A25" s="35"/>
       <c r="B25">
         <v>150</v>
       </c>
@@ -2143,8 +2228,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A26" s="35" t="s">
         <v>10</v>
       </c>
       <c r="B26">
@@ -2179,8 +2264,8 @@
       </c>
       <c r="T26" s="4"/>
     </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
+    <row r="27" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A27" s="35"/>
       <c r="B27">
         <v>167.5</v>
       </c>
@@ -2212,8 +2297,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
+    <row r="28" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="35"/>
       <c r="B28">
         <v>0</v>
       </c>
@@ -2245,8 +2330,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:25" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A29" s="35"/>
       <c r="B29">
         <v>150</v>
       </c>
@@ -2280,12 +2365,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="T21:T22"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="S18:W18"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="S10:S17"/>
     <mergeCell ref="S2:S9"/>
@@ -2293,6 +2372,12 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="S18:W18"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2300,34 +2385,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9E9B71-9EB2-402B-A29F-5B0BB42EA6E4}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26171875" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5703125" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" customWidth="1"/>
-    <col min="19" max="19" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.9453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.47265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.578125" customWidth="1"/>
+    <col min="14" max="15" width="5.20703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.47265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.578125" customWidth="1"/>
+    <col min="19" max="19" width="4.9453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="5.20703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.20703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.20703125" customWidth="1"/>
+    <col min="25" max="25" width="4.9453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="8.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16"/>
       <c r="B1" s="16" t="s">
         <v>39</v>
@@ -2341,28 +2429,37 @@
       <c r="E1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
       <c r="M1" s="17"/>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
       <c r="R1" s="17"/>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
@@ -2419,8 +2516,25 @@
       <c r="V2" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="15"/>
+      <c r="X2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="27" t="s">
         <v>36</v>
       </c>
@@ -2442,7 +2556,7 @@
       <c r="I3" s="18">
         <v>9.6300000000000008</v>
       </c>
-      <c r="J3" s="40">
+      <c r="J3" s="29">
         <v>10.44</v>
       </c>
       <c r="K3" s="18">
@@ -2461,7 +2575,7 @@
       <c r="P3" s="18">
         <v>80.12</v>
       </c>
-      <c r="Q3" s="40">
+      <c r="Q3" s="29">
         <v>95.37</v>
       </c>
       <c r="R3" s="18"/>
@@ -2474,11 +2588,28 @@
       <c r="U3" s="18">
         <v>1.64</v>
       </c>
-      <c r="V3" s="40">
+      <c r="V3" s="29">
         <v>12.85</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="29"/>
+      <c r="X3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA3" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC3" s="47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="27" t="s">
         <v>38</v>
       </c>
@@ -2497,10 +2628,10 @@
       <c r="H4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="29">
         <v>0.94</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="29">
         <v>0.94</v>
       </c>
       <c r="K4" s="18">
@@ -2510,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="18"/>
-      <c r="N4" s="40">
+      <c r="N4" s="29">
         <v>99.38</v>
       </c>
       <c r="O4" s="18">
@@ -2532,11 +2663,28 @@
       <c r="U4" s="18">
         <v>3.57</v>
       </c>
-      <c r="V4" s="40">
+      <c r="V4" s="29">
         <v>8.86</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="29"/>
+      <c r="X4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB4" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="28" t="s">
         <v>37</v>
       </c>
@@ -2558,7 +2706,7 @@
       <c r="I5" s="19">
         <v>0.22</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="30">
         <v>0.18</v>
       </c>
       <c r="K5" s="19">
@@ -2571,13 +2719,13 @@
       <c r="N5" s="19">
         <v>54.84</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="30">
         <v>76.14</v>
       </c>
       <c r="P5" s="19">
         <v>51.62</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="19">
         <v>72.3</v>
       </c>
       <c r="R5" s="19"/>
@@ -2590,21 +2738,52 @@
       <c r="U5" s="19">
         <v>43.21</v>
       </c>
-      <c r="V5" s="41">
+      <c r="V5" s="30">
         <v>333.39</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="44"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA5" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB5" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" s="46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="X6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="S1:V1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="X6:AC6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
